--- a/Income/MMM_inc.xlsx
+++ b/Income/MMM_inc.xlsx
@@ -2134,16 +2134,16 @@
         <v>0.4846</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.481</v>
+        <v>0.4774</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.4795</v>
+        <v>0.4758</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.4792</v>
+        <v>0.4756</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.4703</v>
+        <v>0.4668</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.4723</v>
@@ -3658,16 +3658,16 @@
         <v>0.2753</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.2672</v>
+        <v>0.2576</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.271</v>
+        <v>0.2613</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.2674</v>
+        <v>0.258</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.2512</v>
+        <v>0.2417</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.2544</v>
